--- a/polarity_exploration.xlsx
+++ b/polarity_exploration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="460" windowWidth="26260" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="2700" yWindow="460" windowWidth="26260" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="80">
   <si>
     <t>value</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>this seems to be very sensitive to the level of equality in a text. In austen, where most words are fairly evenly distributed between the sexes, it pulls the average way down - perhaps reflecting very common use of positive words</t>
+  </si>
+  <si>
+    <t>tv/movies</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>gamergate</t>
+  </si>
+  <si>
+    <t>Slate</t>
   </si>
 </sst>
 </file>
@@ -570,23 +582,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:BH101"/>
+  <dimension ref="A2:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="A4" sqref="A4:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.99</v>
       </c>
-      <c r="E2" s="1">
+      <c r="I2" s="1">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="M2" s="1">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -606,358 +624,412 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" t="s">
+      <c r="S4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" t="s">
+      <c r="T4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="U4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="s">
+      <c r="V4" t="s">
         <v>21</v>
       </c>
-      <c r="O4" t="s">
+      <c r="W4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" t="s">
+      <c r="X4" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Y4" t="s">
         <v>24</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Z4" t="s">
         <v>25</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AA4" t="s">
         <v>26</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AB4" t="s">
         <v>27</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AC4" t="s">
         <v>28</v>
       </c>
-      <c r="V4" t="s">
+      <c r="AD4" t="s">
         <v>29</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AE4" t="s">
         <v>30</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AF4" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AG4" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AH4" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AI4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5.6962570862299999E-2</v>
+        <v>9.5542310259899996E-2</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>3.2108822564600001E-2</v>
+        <v>4.9704458411500001E-2</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>3.01500306127E-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>2.40457781515E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="s">
         <v>35</v>
       </c>
-      <c r="K5" t="s">
+      <c r="S5" t="s">
         <v>36</v>
       </c>
-      <c r="L5" t="s">
+      <c r="T5" t="s">
         <v>37</v>
       </c>
-      <c r="M5" t="s">
+      <c r="U5" t="s">
         <v>38</v>
       </c>
-      <c r="N5" t="s">
+      <c r="V5" t="s">
         <v>19</v>
       </c>
-      <c r="O5" t="s">
+      <c r="W5" t="s">
         <v>39</v>
       </c>
-      <c r="P5" t="s">
+      <c r="X5" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Y5" t="s">
         <v>20</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Z5" t="s">
         <v>21</v>
       </c>
-      <c r="S5" t="s">
+      <c r="AA5" t="s">
         <v>22</v>
       </c>
-      <c r="T5" t="s">
+      <c r="AB5" t="s">
         <v>41</v>
       </c>
-      <c r="U5" t="s">
+      <c r="AC5" t="s">
         <v>23</v>
       </c>
-      <c r="V5" t="s">
+      <c r="AD5" t="s">
         <v>42</v>
       </c>
-      <c r="W5" t="s">
+      <c r="AE5" t="s">
         <v>24</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AF5" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AG5" t="s">
         <v>43</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AH5" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AI5" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AJ5" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AK5" t="s">
         <v>44</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AL5" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AM5" t="s">
         <v>46</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AN5" t="s">
         <v>29</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AO5" t="s">
         <v>47</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AP5" t="s">
         <v>30</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AQ5" t="s">
         <v>31</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AR5" t="s">
         <v>48</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AS5" t="s">
         <v>32</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AT5" t="s">
         <v>49</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AU5" t="s">
         <v>50</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AV5" t="s">
         <v>51</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AW5" t="s">
         <v>52</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AX5" t="s">
         <v>33</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AY5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4.9704458411500001E-2</v>
+        <v>0.10329452015899999</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>3.01500306127E-2</v>
+        <v>5.6962570862299999E-2</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>3.2108822564600001E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>2.17010378739E-2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="S6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="T6" t="s">
         <v>55</v>
       </c>
-      <c r="M6" t="s">
+      <c r="U6" t="s">
         <v>37</v>
       </c>
-      <c r="N6" t="s">
+      <c r="V6" t="s">
         <v>56</v>
       </c>
-      <c r="O6" t="s">
+      <c r="W6" t="s">
         <v>38</v>
       </c>
-      <c r="P6" t="s">
+      <c r="X6" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Y6" t="s">
         <v>39</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Z6" t="s">
         <v>40</v>
       </c>
-      <c r="S6" t="s">
+      <c r="AA6" t="s">
         <v>20</v>
       </c>
-      <c r="T6" t="s">
+      <c r="AB6" t="s">
         <v>21</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AC6" t="s">
         <v>22</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AD6" t="s">
         <v>41</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AE6" t="s">
         <v>23</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AF6" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AG6" t="s">
         <v>57</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AH6" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AI6" t="s">
         <v>25</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AJ6" t="s">
         <v>43</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AK6" t="s">
         <v>26</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AL6" t="s">
         <v>58</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AM6" t="s">
         <v>27</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AN6" t="s">
         <v>59</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AO6" t="s">
         <v>60</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AP6" t="s">
         <v>61</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AQ6" t="s">
         <v>28</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AR6" t="s">
         <v>62</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AS6" t="s">
         <v>63</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AT6" t="s">
         <v>44</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AU6" t="s">
         <v>64</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AV6" t="s">
         <v>45</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AW6" t="s">
         <v>65</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AX6" t="s">
         <v>46</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AY6" t="s">
         <v>66</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AZ6" t="s">
         <v>29</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="BA6" t="s">
         <v>47</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="BB6" t="s">
         <v>67</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="BC6" t="s">
         <v>30</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="BD6" t="s">
         <v>31</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="BE6" t="s">
         <v>48</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="BF6" t="s">
         <v>32</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="BG6" t="s">
         <v>68</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BH6" t="s">
         <v>49</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BI6" t="s">
         <v>69</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BJ6" t="s">
         <v>50</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BK6" t="s">
         <v>70</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BL6" t="s">
         <v>51</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BM6" t="s">
         <v>52</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BN6" t="s">
         <v>71</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BO6" t="s">
         <v>33</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BP6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1.6510411251500001E-2</v>
+        <v>8.7435125508700001E-2</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -966,7 +1038,7 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>1.0248151207100001E-2</v>
+        <v>1.6510411251500001E-2</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
@@ -974,10 +1046,28 @@
       <c r="G7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>1.0248151207100001E-2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>7.2904658874400003E-3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2.6122008332499998E-2</v>
+        <v>9.49751353981E-2</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -986,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>1.27289296589E-2</v>
+        <v>2.6122008332499998E-2</v>
       </c>
       <c r="F8" t="s">
         <v>4</v>
@@ -994,729 +1084,988 @@
       <c r="G8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>1.27289296589E-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>4.6496637601600001E-3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>6.8778110703799994E-2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>3.7054433694200001E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>2.1278524804800001E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>1.2274024351400001E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7.5232125703100006E-2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>4.3580966729199998E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>3.0401060040999999E-2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>2.2526842264100001E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6.6858610226700005E-2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
         <v>-7.8998175217600002E-4</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
         <v>-7.12497662163E-3</v>
       </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>6.1738176471199998E-3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6.6539723993399996E-2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
         <v>3.9033121689199999E-3</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12">
         <v>-1.0128951137899999E-2</v>
       </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>2.5742552205300002E-3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9.6104252146000005E-2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
         <v>2.2731223657300001E-2</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13">
         <v>-2.3986970883000001E-3</v>
       </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>-9.6465613353700005E-3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7.6059432333200006E-2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
         <v>1.50174288904E-2</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14">
         <v>-1.01008123183E-3</v>
       </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>-1.2638397668499999E-2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9.8384188129400002E-2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>1.3683611169E-2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>7.7874886336000001E-3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <v>1.9450078229200001E-3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>9.9029373296199999E-2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1.1358708168600001E-2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>-4.2026066135000002E-3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>-1.10824214463E-3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>153.09895833300001</v>
+      </c>
+      <c r="D22">
+        <v>176.76046279100001</v>
+      </c>
+      <c r="F22">
+        <v>104.375</v>
+      </c>
+      <c r="G22">
+        <v>123.31095557800001</v>
+      </c>
+      <c r="J22">
+        <v>87.421875</v>
+      </c>
+      <c r="K22">
+        <v>103.95657763200001</v>
+      </c>
+      <c r="M22">
+        <v>75.9375</v>
+      </c>
+      <c r="N22">
+        <v>91.558348807300007</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>15.8142834379</v>
+      </c>
+      <c r="D23">
+        <v>16.888102977700001</v>
+      </c>
+      <c r="F23">
+        <v>5.9454683337500001</v>
+      </c>
+      <c r="G23">
+        <v>6.1291042631900003</v>
+      </c>
+      <c r="J23">
+        <v>2.80701347264</v>
+      </c>
+      <c r="K23">
+        <v>3.13429399799</v>
+      </c>
+      <c r="M23">
+        <v>1.6479225635500001</v>
+      </c>
+      <c r="N23">
+        <v>2.2015917433399999</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>0.10329452015899999</v>
+      </c>
+      <c r="D24">
+        <v>9.5542310259899996E-2</v>
+      </c>
+      <c r="F24">
+        <v>5.6962570862299999E-2</v>
+      </c>
+      <c r="G24">
+        <v>4.9704458411500001E-2</v>
+      </c>
+      <c r="J24">
+        <v>3.2108822564600001E-2</v>
+      </c>
+      <c r="K24">
+        <v>3.01500306127E-2</v>
+      </c>
+      <c r="M24">
+        <v>2.17010378739E-2</v>
+      </c>
+      <c r="N24">
+        <v>2.40457781515E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>155.49472171400001</v>
+      </c>
+      <c r="D26">
+        <v>140.79664094399999</v>
+      </c>
+      <c r="F26">
+        <v>90.685578387299998</v>
+      </c>
+      <c r="G26">
+        <v>80.269329701900006</v>
+      </c>
+      <c r="J26">
+        <v>74.602631443899995</v>
+      </c>
+      <c r="K26">
+        <v>65.947949765499999</v>
+      </c>
+      <c r="M26">
+        <v>64.220575906400001</v>
+      </c>
+      <c r="N26">
+        <v>55.954002118299996</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>13.595700509</v>
+      </c>
+      <c r="D27">
+        <v>13.3721800373</v>
+      </c>
+      <c r="F27">
+        <v>1.49725619375</v>
+      </c>
+      <c r="G27">
+        <v>2.0967960993200001</v>
+      </c>
+      <c r="J27">
+        <v>0.76453904748799995</v>
+      </c>
+      <c r="K27">
+        <v>0.83944681371499996</v>
+      </c>
+      <c r="M27">
+        <v>0.46819791791699999</v>
+      </c>
+      <c r="N27">
+        <v>0.26016729588600002</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>8.7435125508700001E-2</v>
+      </c>
+      <c r="D28">
+        <v>9.49751353981E-2</v>
+      </c>
+      <c r="F28">
+        <v>1.6510411251500001E-2</v>
+      </c>
+      <c r="G28">
+        <v>2.6122008332499998E-2</v>
+      </c>
+      <c r="J28">
+        <v>1.0248151207100001E-2</v>
+      </c>
+      <c r="K28">
+        <v>1.27289296589E-2</v>
+      </c>
+      <c r="M28">
+        <v>7.2904658874400003E-3</v>
+      </c>
+      <c r="N28">
+        <v>4.6496637601600001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>115.45596807299999</v>
+      </c>
+      <c r="D30">
+        <v>118.27042824199999</v>
+      </c>
+      <c r="F30">
+        <v>54.116375219299997</v>
+      </c>
+      <c r="G30">
+        <v>57.737630694800004</v>
+      </c>
+      <c r="J30">
+        <v>38.134922288399999</v>
+      </c>
+      <c r="K30">
+        <v>41.255832489200003</v>
+      </c>
+      <c r="M30">
+        <v>30.0750957216</v>
+      </c>
+      <c r="N30">
+        <v>32.626515893700002</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>7.7192255677199997</v>
+      </c>
+      <c r="D31">
+        <v>7.8696816517899997</v>
+      </c>
+      <c r="F31">
+        <v>-4.27509489172E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.22536799649600001</v>
+      </c>
+      <c r="J31">
+        <v>-0.27171042977299997</v>
+      </c>
+      <c r="K31">
+        <v>-0.41787831143600002</v>
+      </c>
+      <c r="M31">
+        <v>0.18567815670500001</v>
+      </c>
+      <c r="N31">
+        <v>8.3988978867199998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>6.6858610226700005E-2</v>
+      </c>
+      <c r="D32">
+        <v>6.6539723993399996E-2</v>
+      </c>
+      <c r="F32">
+        <v>-7.8998175217600002E-4</v>
+      </c>
+      <c r="G32">
+        <v>3.9033121689199999E-3</v>
+      </c>
+      <c r="J32">
+        <v>-7.12497662163E-3</v>
+      </c>
+      <c r="K32">
+        <v>-1.0128951137899999E-2</v>
+      </c>
+      <c r="M32">
+        <v>6.1738176471199998E-3</v>
+      </c>
+      <c r="N32">
+        <v>2.5742552205300002E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>106.463149914</v>
+      </c>
+      <c r="D34">
+        <v>104.62475182</v>
+      </c>
+      <c r="F34">
+        <v>47.104297634799998</v>
+      </c>
+      <c r="G34">
+        <v>47.653871608199999</v>
+      </c>
+      <c r="J34">
+        <v>33.323705813099998</v>
+      </c>
+      <c r="K34">
+        <v>34.635340833900003</v>
+      </c>
+      <c r="M34">
+        <v>26.528632094799999</v>
+      </c>
+      <c r="N34">
+        <v>27.696227663799998</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>10.231561403600001</v>
+      </c>
+      <c r="D35">
+        <v>7.9576992314300004</v>
+      </c>
+      <c r="F35">
+        <v>1.07073832476</v>
+      </c>
+      <c r="G35">
+        <v>0.71563862823000002</v>
+      </c>
+      <c r="J35">
+        <v>-7.9933476105200005E-2</v>
+      </c>
+      <c r="K35">
+        <v>-3.4984507734300001E-2</v>
+      </c>
+      <c r="M35">
+        <v>-0.25591007664600002</v>
+      </c>
+      <c r="N35">
+        <v>-0.35003593913300002</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>9.6104252146000005E-2</v>
+      </c>
+      <c r="D36">
+        <v>7.6059432333200006E-2</v>
+      </c>
+      <c r="F36">
+        <v>2.2731223657300001E-2</v>
+      </c>
+      <c r="G36">
+        <v>1.50174288904E-2</v>
+      </c>
+      <c r="J36">
+        <v>-2.3986970883000001E-3</v>
+      </c>
+      <c r="K36">
+        <v>-1.01008123183E-3</v>
+      </c>
+      <c r="M36">
+        <v>-9.6465613353700005E-3</v>
+      </c>
+      <c r="N36">
+        <v>-1.2638397668499999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>159.28138237900001</v>
+      </c>
+      <c r="D38">
+        <v>158.395721925</v>
+      </c>
+      <c r="F38">
+        <v>101.895590162</v>
+      </c>
+      <c r="G38">
+        <v>102.121212121</v>
+      </c>
+      <c r="J38">
+        <v>82.945783683299993</v>
+      </c>
+      <c r="K38">
+        <v>83.859180035700007</v>
+      </c>
+      <c r="M38">
+        <v>71.922713558599995</v>
+      </c>
+      <c r="N38">
+        <v>74.037433155100004</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>10.955072550300001</v>
+      </c>
+      <c r="D39">
+        <v>11.916446862700001</v>
+      </c>
+      <c r="F39">
+        <v>3.7756833894000001</v>
+      </c>
+      <c r="G39">
+        <v>4.4505411478000001</v>
+      </c>
+      <c r="J39">
+        <v>1.7649639155600001</v>
+      </c>
+      <c r="K39">
+        <v>2.5494079672600001</v>
+      </c>
+      <c r="M39">
+        <v>0.88278113763400001</v>
+      </c>
+      <c r="N39">
+        <v>1.6678295783199999</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>6.8778110703799994E-2</v>
+      </c>
+      <c r="D40">
+        <v>7.5232125703100006E-2</v>
+      </c>
+      <c r="F40">
         <v>3.7054433694200001E-2</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
+      <c r="G40">
+        <v>4.3580966729199998E-2</v>
+      </c>
+      <c r="J40">
         <v>2.1278524804800001E-2</v>
       </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>4.3580966729199998E-2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
+      <c r="K40">
         <v>3.0401060040999999E-2</v>
       </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="M40">
+        <v>1.2274024351400001E-2</v>
+      </c>
+      <c r="N40">
+        <v>2.2526842264100001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>57.076171166899996</v>
+      </c>
+      <c r="D42">
+        <v>61.617554976999998</v>
+      </c>
+      <c r="F42">
+        <v>27.667033365399998</v>
+      </c>
+      <c r="G42">
+        <v>27.4901486298</v>
+      </c>
+      <c r="J42">
+        <v>19.920145766699999</v>
+      </c>
+      <c r="K42">
+        <v>19.7466812927</v>
+      </c>
+      <c r="M42">
+        <v>15.611253658600001</v>
+      </c>
+      <c r="N42">
+        <v>15.6209541117</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>5.6153927617899999</v>
+      </c>
+      <c r="D43">
+        <v>6.1019478534199996</v>
+      </c>
+      <c r="F43">
+        <v>0.37858492677299999</v>
+      </c>
+      <c r="G43">
+        <v>0.31225257579600002</v>
+      </c>
+      <c r="J43">
+        <v>0.155127908737</v>
+      </c>
+      <c r="K43">
+        <v>-8.29875333952E-2</v>
+      </c>
+      <c r="M43">
+        <v>3.0364010491500001E-2</v>
+      </c>
+      <c r="N43">
+        <v>-1.7311799685999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>9.8384188129400002E-2</v>
+      </c>
+      <c r="D44">
+        <v>9.9029373296199999E-2</v>
+      </c>
+      <c r="F44">
         <v>1.3683611169E-2</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
+      <c r="G44">
+        <v>1.1358708168600001E-2</v>
+      </c>
+      <c r="J44">
         <v>7.7874886336000001E-3</v>
       </c>
-      <c r="F15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1.1358708168600001E-2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
+      <c r="K44">
         <v>-4.2026066135000002E-3</v>
       </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F21">
-        <v>104.375</v>
-      </c>
-      <c r="G21">
-        <v>123.31095557800001</v>
-      </c>
-      <c r="J21">
-        <v>87.421875</v>
-      </c>
-      <c r="K21">
-        <v>103.95657763200001</v>
-      </c>
-      <c r="M21">
-        <v>75.9375</v>
-      </c>
-      <c r="N21">
-        <v>91.558348807300007</v>
-      </c>
-    </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F22">
-        <v>5.9454683337500001</v>
-      </c>
-      <c r="G22">
-        <v>6.1291042631900003</v>
-      </c>
-      <c r="J22">
-        <v>2.80701347264</v>
-      </c>
-      <c r="K22">
-        <v>3.13429399799</v>
-      </c>
-      <c r="M22">
-        <v>1.6479225635500001</v>
-      </c>
-      <c r="N22">
-        <v>2.2015917433399999</v>
-      </c>
-    </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F23">
-        <v>5.6962570862299999E-2</v>
-      </c>
-      <c r="G23">
-        <v>4.9704458411500001E-2</v>
-      </c>
-      <c r="J23">
-        <v>3.2108822564600001E-2</v>
-      </c>
-      <c r="K23">
-        <v>3.01500306127E-2</v>
-      </c>
-      <c r="M23">
-        <v>2.17010378739E-2</v>
-      </c>
-      <c r="N23">
-        <v>2.40457781515E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F25">
-        <v>90.685578387299998</v>
-      </c>
-      <c r="G25">
-        <v>80.269329701900006</v>
-      </c>
-      <c r="J25">
-        <v>74.602631443899995</v>
-      </c>
-      <c r="K25">
-        <v>65.947949765499999</v>
-      </c>
-      <c r="M25">
-        <v>64.220575906400001</v>
-      </c>
-      <c r="N25">
-        <v>55.954002118299996</v>
-      </c>
-    </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F26">
-        <v>1.49725619375</v>
-      </c>
-      <c r="G26">
-        <v>2.0967960993200001</v>
-      </c>
-      <c r="J26">
-        <v>0.76453904748799995</v>
-      </c>
-      <c r="K26">
-        <v>0.83944681371499996</v>
-      </c>
-      <c r="M26">
-        <v>0.46819791791699999</v>
-      </c>
-      <c r="N26">
-        <v>0.26016729588600002</v>
-      </c>
-    </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F27">
-        <v>1.6510411251500001E-2</v>
-      </c>
-      <c r="G27">
-        <v>2.6122008332499998E-2</v>
-      </c>
-      <c r="J27">
-        <v>1.0248151207100001E-2</v>
-      </c>
-      <c r="K27">
-        <v>1.27289296589E-2</v>
-      </c>
-      <c r="M27">
-        <v>7.2904658874400003E-3</v>
-      </c>
-      <c r="N27">
-        <v>4.6496637601600001E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" t="s">
-        <v>13</v>
-      </c>
-      <c r="M28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F29">
-        <v>54.116375219299997</v>
-      </c>
-      <c r="G29">
-        <v>57.737630694800004</v>
-      </c>
-      <c r="J29">
-        <v>38.134922288399999</v>
-      </c>
-      <c r="K29">
-        <v>41.255832489200003</v>
-      </c>
-      <c r="M29">
-        <v>30.0750957216</v>
-      </c>
-      <c r="N29">
-        <v>32.626515893700002</v>
-      </c>
-    </row>
-    <row r="30" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F30">
-        <v>-4.27509489172E-2</v>
-      </c>
-      <c r="G30">
-        <v>0.22536799649600001</v>
-      </c>
-      <c r="J30">
-        <v>-0.27171042977299997</v>
-      </c>
-      <c r="K30">
-        <v>-0.41787831143600002</v>
-      </c>
-      <c r="M30">
-        <v>0.18567815670500001</v>
-      </c>
-      <c r="N30">
-        <v>8.3988978867199998E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F31">
-        <v>-7.8998175217600002E-4</v>
-      </c>
-      <c r="G31">
-        <v>3.9033121689199999E-3</v>
-      </c>
-      <c r="J31">
-        <v>-7.12497662163E-3</v>
-      </c>
-      <c r="K31">
-        <v>-1.0128951137899999E-2</v>
-      </c>
-      <c r="M31">
-        <v>6.1738176471199998E-3</v>
-      </c>
-      <c r="N31">
-        <v>2.5742552205300002E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F33">
-        <v>47.104297634799998</v>
-      </c>
-      <c r="G33">
-        <v>47.653871608199999</v>
-      </c>
-      <c r="J33">
-        <v>33.323705813099998</v>
-      </c>
-      <c r="K33">
-        <v>34.635340833900003</v>
-      </c>
-      <c r="M33">
-        <v>26.528632094799999</v>
-      </c>
-      <c r="N33">
-        <v>27.696227663799998</v>
-      </c>
-    </row>
-    <row r="34" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F34">
-        <v>1.07073832476</v>
-      </c>
-      <c r="G34">
-        <v>0.71563862823000002</v>
-      </c>
-      <c r="J34">
-        <v>-7.9933476105200005E-2</v>
-      </c>
-      <c r="K34">
-        <v>-3.4984507734300001E-2</v>
-      </c>
-      <c r="M34">
-        <v>-0.25591007664600002</v>
-      </c>
-      <c r="N34">
-        <v>-0.35003593913300002</v>
-      </c>
-    </row>
-    <row r="35" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F35">
-        <v>2.2731223657300001E-2</v>
-      </c>
-      <c r="G35">
-        <v>1.50174288904E-2</v>
-      </c>
-      <c r="J35">
-        <v>-2.3986970883000001E-3</v>
-      </c>
-      <c r="K35">
-        <v>-1.01008123183E-3</v>
-      </c>
-      <c r="M35">
-        <v>-9.6465613353700005E-3</v>
-      </c>
-      <c r="N35">
-        <v>-1.2638397668499999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" t="s">
-        <v>15</v>
-      </c>
-      <c r="M36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F37">
-        <v>101.895590162</v>
-      </c>
-      <c r="G37">
-        <v>102.121212121</v>
-      </c>
-      <c r="J37">
-        <v>82.945783683299993</v>
-      </c>
-      <c r="K37">
-        <v>83.859180035700007</v>
-      </c>
-      <c r="M37">
-        <v>71.922713558599995</v>
-      </c>
-      <c r="N37">
-        <v>74.037433155100004</v>
-      </c>
-    </row>
-    <row r="38" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F38">
-        <v>3.7756833894000001</v>
-      </c>
-      <c r="G38">
-        <v>4.4505411478000001</v>
-      </c>
-      <c r="J38">
-        <v>1.7649639155600001</v>
-      </c>
-      <c r="K38">
-        <v>2.5494079672600001</v>
-      </c>
-      <c r="M38">
-        <v>0.88278113763400001</v>
-      </c>
-      <c r="N38">
-        <v>1.6678295783199999</v>
-      </c>
-    </row>
-    <row r="39" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F39">
-        <v>3.7054433694200001E-2</v>
-      </c>
-      <c r="G39">
-        <v>4.3580966729199998E-2</v>
-      </c>
-      <c r="J39">
-        <v>2.1278524804800001E-2</v>
-      </c>
-      <c r="K39">
-        <v>3.0401060040999999E-2</v>
-      </c>
-      <c r="M39">
-        <v>1.2274024351400001E-2</v>
-      </c>
-      <c r="N39">
-        <v>2.2526842264100001E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" t="s">
-        <v>16</v>
-      </c>
-      <c r="M40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F41">
-        <v>27.667033365399998</v>
-      </c>
-      <c r="G41">
-        <v>27.4901486298</v>
-      </c>
-      <c r="J41">
-        <v>19.920145766699999</v>
-      </c>
-      <c r="K41">
-        <v>19.7466812927</v>
-      </c>
-      <c r="M41">
-        <v>15.611253658600001</v>
-      </c>
-      <c r="N41">
-        <v>15.6209541117</v>
-      </c>
-    </row>
-    <row r="42" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F42">
-        <v>0.37858492677299999</v>
-      </c>
-      <c r="G42">
-        <v>0.31225257579600002</v>
-      </c>
-      <c r="J42">
-        <v>0.155127908737</v>
-      </c>
-      <c r="K42">
-        <v>-8.29875333952E-2</v>
-      </c>
-      <c r="M42">
-        <v>3.0364010491500001E-2</v>
-      </c>
-      <c r="N42">
-        <v>-1.7311799685999999E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="6:14" x14ac:dyDescent="0.2">
-      <c r="F43">
-        <v>1.3683611169E-2</v>
-      </c>
-      <c r="G43">
-        <v>1.1358708168600001E-2</v>
-      </c>
-      <c r="J43">
-        <v>7.7874886336000001E-3</v>
-      </c>
-      <c r="K43">
-        <v>-4.2026066135000002E-3</v>
-      </c>
-      <c r="M43">
+      <c r="M44">
         <v>1.9450078229200001E-3</v>
       </c>
-      <c r="N43">
+      <c r="N44">
         <v>-1.10824214463E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>0</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>1</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>2</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>0</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
         <v>1</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G55" t="s">
         <v>2</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I55" t="s">
         <v>0</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J55" t="s">
         <v>1</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K55" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>7.8052595479799994E-2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55">
-        <v>2.31691563057E-2</v>
-      </c>
-      <c r="F55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" t="s">
-        <v>9</v>
-      </c>
-      <c r="I55">
-        <v>1.0886917558700001E-2</v>
-      </c>
-      <c r="J55" t="s">
-        <v>3</v>
-      </c>
-      <c r="K55" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>8.5629199723600002E-2</v>
+        <v>7.8052595479799994E-2</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>2.4343144532E-2</v>
+        <v>2.31691563057E-2</v>
       </c>
       <c r="F56" t="s">
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I56">
-        <v>1.6801261012299999E-2</v>
+        <v>1.0886917558700001E-2</v>
       </c>
       <c r="J56" t="s">
         <v>3</v>
       </c>
       <c r="K56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>3.9104883723099997E-2</v>
+        <v>8.5629199723600002E-2</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <v>2.0921965482899998E-2</v>
+        <v>2.4343144532E-2</v>
       </c>
       <c r="F57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I57">
-        <v>5.6348039900699998E-3</v>
+        <v>1.6801261012299999E-2</v>
       </c>
       <c r="J57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>4.1903175532700003E-2</v>
+        <v>3.9104883723099997E-2</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58">
         <v>2.0921965482899998E-2</v>
@@ -1725,65 +2074,65 @@
         <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I58">
-        <v>4.5238353120999997E-2</v>
+        <v>5.6348039900699998E-3</v>
       </c>
       <c r="J58" t="s">
         <v>4</v>
       </c>
       <c r="K58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>7.5450321071500001E-2</v>
+        <v>4.1903175532700003E-2</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>3.3561961380399997E-2</v>
+        <v>2.0921965482899998E-2</v>
       </c>
       <c r="F59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I59">
-        <v>7.0895098079000005E-2</v>
+        <v>4.5238353120999997E-2</v>
       </c>
       <c r="J59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>7.4574991023200005E-2</v>
+        <v>7.5450321071500001E-2</v>
       </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>5.3203852143600003E-2</v>
+        <v>3.3561961380399997E-2</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I60">
         <v>7.0895098079000005E-2</v>
@@ -1792,611 +2141,640 @@
         <v>5</v>
       </c>
       <c r="K60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>0.182800216421</v>
+        <v>7.4574991023200005E-2</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>0.27369571780899998</v>
+        <v>5.3203852143600003E-2</v>
       </c>
       <c r="F61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I61">
-        <v>8.8485411350500004E-2</v>
+        <v>7.0895098079000005E-2</v>
       </c>
       <c r="J61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>0.139474575968</v>
+        <v>0.182800216421</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62">
-        <v>0.21013632938900001</v>
+        <v>0.27369571780899998</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I62">
-        <v>0.11756871156900001</v>
+        <v>8.8485411350500004E-2</v>
       </c>
       <c r="J62" t="s">
         <v>6</v>
       </c>
       <c r="K62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>4.6071289427100003E-2</v>
+        <v>0.139474575968</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>1.60558798547E-2</v>
+        <v>0.21013632938900001</v>
       </c>
       <c r="F63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I63">
-        <v>1.2104822992999999E-2</v>
+        <v>0.11756871156900001</v>
       </c>
       <c r="J63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>5.9037674301000001E-2</v>
+        <v>4.6071289427100003E-2</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64">
-        <v>4.3978337396099999E-2</v>
+        <v>1.60558798547E-2</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I64">
-        <v>4.5060440086300002E-2</v>
+        <v>1.2104822992999999E-2</v>
       </c>
       <c r="J64" t="s">
         <v>7</v>
       </c>
       <c r="K64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>0.13002605918499999</v>
+        <v>5.9037674301000001E-2</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>6.9318038317799993E-2</v>
+        <v>4.3978337396099999E-2</v>
       </c>
       <c r="F65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I65">
-        <v>5.1460402279100002E-2</v>
+        <v>4.5060440086300002E-2</v>
       </c>
       <c r="J65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>0.123707241451</v>
+        <v>0.13002605918499999</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66">
-        <v>8.6953966376199995E-2</v>
+        <v>6.9318038317799993E-2</v>
       </c>
       <c r="F66" t="s">
         <v>8</v>
       </c>
       <c r="G66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I66">
-        <v>8.7967648123300005E-2</v>
+        <v>5.1460402279100002E-2</v>
       </c>
       <c r="J66" t="s">
         <v>8</v>
       </c>
       <c r="K66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>0.123707241451</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>8.6953966376199995E-2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67">
+        <v>8.7967648123300005E-2</v>
+      </c>
+      <c r="J67" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F78" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J79" t="s">
         <v>11</v>
       </c>
-      <c r="N78" t="s">
+      <c r="N79" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F79">
-        <v>99.21875</v>
-      </c>
-      <c r="G79">
-        <v>105.08498785899999</v>
-      </c>
-      <c r="J79">
-        <v>50.729166666700003</v>
-      </c>
-      <c r="K79">
-        <v>47.650335666300002</v>
-      </c>
-      <c r="N79">
-        <v>25.46875</v>
-      </c>
-      <c r="O79">
-        <v>23.625196400499998</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F80">
-        <v>7.74428095776</v>
+        <v>99.21875</v>
       </c>
       <c r="G80">
-        <v>8.9983434133200006</v>
+        <v>105.08498785899999</v>
       </c>
       <c r="J80">
-        <v>1.1753519917599999</v>
+        <v>50.729166666700003</v>
       </c>
       <c r="K80">
-        <v>1.15995900812</v>
+        <v>47.650335666300002</v>
       </c>
       <c r="N80">
-        <v>0.27727618157299999</v>
+        <v>25.46875</v>
       </c>
       <c r="O80">
-        <v>0.39693309119100001</v>
+        <v>23.625196400499998</v>
       </c>
     </row>
     <row r="81" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F81">
+        <v>7.74428095776</v>
+      </c>
+      <c r="G81">
+        <v>8.9983434133200006</v>
+      </c>
+      <c r="J81">
+        <v>1.1753519917599999</v>
+      </c>
+      <c r="K81">
+        <v>1.15995900812</v>
+      </c>
+      <c r="N81">
+        <v>0.27727618157299999</v>
+      </c>
+      <c r="O81">
+        <v>0.39693309119100001</v>
+      </c>
+    </row>
+    <row r="82" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F82">
         <v>7.8052595479799994E-2</v>
       </c>
-      <c r="G81">
+      <c r="G82">
         <v>8.5629199723600002E-2</v>
       </c>
-      <c r="J81">
+      <c r="J82">
         <v>2.31691563057E-2</v>
       </c>
-      <c r="K81">
+      <c r="K82">
         <v>2.4343144532E-2</v>
       </c>
-      <c r="N81">
+      <c r="N82">
         <v>1.0886917558700001E-2</v>
       </c>
-      <c r="O81">
+      <c r="O82">
         <v>1.6801261012299999E-2</v>
       </c>
     </row>
-    <row r="82" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F82" t="s">
+    <row r="83" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
         <v>12</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J83" t="s">
         <v>12</v>
       </c>
-      <c r="N82" t="s">
+      <c r="N83" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F83">
-        <v>98.605574281000003</v>
-      </c>
-      <c r="G83">
-        <v>85.4667877137</v>
-      </c>
-      <c r="J83">
-        <v>51.864081988800002</v>
-      </c>
-      <c r="K83">
-        <v>40.985776970800003</v>
-      </c>
-      <c r="N83">
-        <v>26.461580577300001</v>
-      </c>
-      <c r="O83">
-        <v>19.477228022399999</v>
       </c>
     </row>
     <row r="84" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F84">
-        <v>3.85595951671</v>
+        <v>98.605574281000003</v>
       </c>
       <c r="G84">
-        <v>3.58132980778</v>
+        <v>85.4667877137</v>
       </c>
       <c r="J84">
-        <v>1.08509853317</v>
+        <v>51.864081988800002</v>
       </c>
       <c r="K84">
-        <v>1.8073216911400001</v>
+        <v>40.985776970800003</v>
       </c>
       <c r="N84">
-        <v>0.14910581982000001</v>
+        <v>26.461580577300001</v>
       </c>
       <c r="O84">
-        <v>0.88111771909400005</v>
+        <v>19.477228022399999</v>
       </c>
     </row>
     <row r="85" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F85">
+        <v>3.85595951671</v>
+      </c>
+      <c r="G85">
+        <v>3.58132980778</v>
+      </c>
+      <c r="J85">
+        <v>1.08509853317</v>
+      </c>
+      <c r="K85">
+        <v>1.8073216911400001</v>
+      </c>
+      <c r="N85">
+        <v>0.14910581982000001</v>
+      </c>
+      <c r="O85">
+        <v>0.88111771909400005</v>
+      </c>
+    </row>
+    <row r="86" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F86">
         <v>3.9104883723099997E-2</v>
       </c>
-      <c r="G85">
+      <c r="G86">
         <v>4.1903175532700003E-2</v>
       </c>
-      <c r="J85">
+      <c r="J86">
         <v>2.0921965482899998E-2</v>
       </c>
-      <c r="K85">
+      <c r="K86">
         <v>4.4096314007499998E-2</v>
       </c>
-      <c r="N85">
+      <c r="N86">
         <v>5.6348039900699998E-3</v>
       </c>
-      <c r="O85">
+      <c r="O86">
         <v>4.5238353120999997E-2</v>
       </c>
     </row>
-    <row r="86" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F86" t="s">
+    <row r="87" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
         <v>13</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J87" t="s">
         <v>13</v>
       </c>
-      <c r="N86" t="s">
+      <c r="N87" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F87">
-        <v>49.296035482999997</v>
-      </c>
-      <c r="G87">
-        <v>51.475903447699999</v>
-      </c>
-      <c r="J87">
-        <v>19.959396456299999</v>
-      </c>
-      <c r="K87">
-        <v>21.2014789477</v>
-      </c>
-      <c r="N87">
-        <v>11.4000120375</v>
-      </c>
-      <c r="O87">
-        <v>11.8357327488</v>
       </c>
     </row>
     <row r="88" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F88">
-        <v>3.7194017047400001</v>
+        <v>49.296035482999997</v>
       </c>
       <c r="G88">
-        <v>3.8388150375299999</v>
+        <v>51.475903447699999</v>
       </c>
       <c r="J88">
-        <v>0.66987649304399999</v>
+        <v>19.959396456299999</v>
       </c>
       <c r="K88">
-        <v>1.1280003511600001</v>
+        <v>21.2014789477</v>
       </c>
       <c r="N88">
-        <v>0.80820497150299997</v>
+        <v>11.4000120375</v>
       </c>
       <c r="O88">
-        <v>1.4310585472099999</v>
+        <v>11.8357327488</v>
       </c>
     </row>
     <row r="89" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F89">
+        <v>3.7194017047400001</v>
+      </c>
+      <c r="G89">
+        <v>3.8388150375299999</v>
+      </c>
+      <c r="J89">
+        <v>0.66987649304399999</v>
+      </c>
+      <c r="K89">
+        <v>1.1280003511600001</v>
+      </c>
+      <c r="N89">
+        <v>0.80820497150299997</v>
+      </c>
+      <c r="O89">
+        <v>1.4310585472099999</v>
+      </c>
+    </row>
+    <row r="90" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F90">
         <v>7.5450321071500001E-2</v>
       </c>
-      <c r="G89">
+      <c r="G90">
         <v>7.4574991023200005E-2</v>
       </c>
-      <c r="J89">
+      <c r="J90">
         <v>3.3561961380399997E-2</v>
       </c>
-      <c r="K89">
+      <c r="K90">
         <v>5.3203852143600003E-2</v>
       </c>
-      <c r="N89">
+      <c r="N90">
         <v>7.0895098079000005E-2</v>
       </c>
-      <c r="O89">
+      <c r="O90">
         <v>0.120910008496</v>
       </c>
     </row>
-    <row r="90" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F90" t="s">
+    <row r="91" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
         <v>14</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J91" t="s">
         <v>14</v>
       </c>
-      <c r="N90" t="s">
+      <c r="N91" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F91">
-        <v>50.841655873299999</v>
-      </c>
-      <c r="G91">
-        <v>48.559232296499999</v>
-      </c>
-      <c r="J91">
-        <v>21.104126144599999</v>
-      </c>
-      <c r="K91">
-        <v>21.039708802100002</v>
-      </c>
-      <c r="N91">
-        <v>8.0090438518500005</v>
-      </c>
-      <c r="O91">
-        <v>11.019192587699999</v>
       </c>
     </row>
     <row r="92" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F92">
-        <v>9.2938656968500002</v>
+        <v>50.841655873299999</v>
       </c>
       <c r="G92">
-        <v>6.7727783338799998</v>
+        <v>48.559232296499999</v>
       </c>
       <c r="J92">
-        <v>5.7761089538699997</v>
+        <v>21.104126144599999</v>
       </c>
       <c r="K92">
-        <v>4.4212071790999996</v>
+        <v>21.039708802100002</v>
       </c>
       <c r="N92">
-        <v>0.70868353975599996</v>
+        <v>8.0090438518500005</v>
       </c>
       <c r="O92">
-        <v>1.2955122750600001</v>
+        <v>11.019192587699999</v>
       </c>
     </row>
     <row r="93" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F93">
+        <v>9.2938656968500002</v>
+      </c>
+      <c r="G93">
+        <v>6.7727783338799998</v>
+      </c>
+      <c r="J93">
+        <v>5.7761089538699997</v>
+      </c>
+      <c r="K93">
+        <v>4.4212071790999996</v>
+      </c>
+      <c r="N93">
+        <v>0.70868353975599996</v>
+      </c>
+      <c r="O93">
+        <v>1.2955122750600001</v>
+      </c>
+    </row>
+    <row r="94" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F94">
         <v>0.182800216421</v>
       </c>
-      <c r="G93">
+      <c r="G94">
         <v>0.139474575968</v>
       </c>
-      <c r="J93">
+      <c r="J94">
         <v>0.27369571780899998</v>
       </c>
-      <c r="K93">
+      <c r="K94">
         <v>0.21013632938900001</v>
       </c>
-      <c r="N93">
+      <c r="N94">
         <v>8.8485411350500004E-2</v>
       </c>
-      <c r="O93">
+      <c r="O94">
         <v>0.11756871156900001</v>
       </c>
     </row>
-    <row r="94" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F94" t="s">
+    <row r="95" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
         <v>15</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J95" t="s">
         <v>15</v>
       </c>
-      <c r="N94" t="s">
+      <c r="N95" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F95">
-        <v>101.895590162</v>
-      </c>
-      <c r="G95">
-        <v>94.420677361900005</v>
-      </c>
-      <c r="J95">
-        <v>59.482522171100001</v>
-      </c>
-      <c r="K95">
-        <v>50.303030303</v>
-      </c>
-      <c r="N95">
-        <v>38.996739097300001</v>
-      </c>
-      <c r="O95">
-        <v>31.0427807487</v>
       </c>
     </row>
     <row r="96" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F96">
-        <v>4.6944612257099996</v>
+        <v>101.895590162</v>
       </c>
       <c r="G96">
-        <v>5.5743771973699996</v>
+        <v>94.420677361900005</v>
       </c>
       <c r="J96">
-        <v>0.95504422943199996</v>
+        <v>59.482522171100001</v>
       </c>
       <c r="K96">
-        <v>2.21224363871</v>
+        <v>50.303030303</v>
       </c>
       <c r="N96">
-        <v>0.47204862407699999</v>
+        <v>38.996739097300001</v>
       </c>
       <c r="O96">
-        <v>1.3988013620399999</v>
+        <v>31.0427807487</v>
       </c>
     </row>
     <row r="97" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F97">
+        <v>4.6944612257099996</v>
+      </c>
+      <c r="G97">
+        <v>5.5743771973699996</v>
+      </c>
+      <c r="J97">
+        <v>0.95504422943199996</v>
+      </c>
+      <c r="K97">
+        <v>2.21224363871</v>
+      </c>
+      <c r="N97">
+        <v>0.47204862407699999</v>
+      </c>
+      <c r="O97">
+        <v>1.3988013620399999</v>
+      </c>
+    </row>
+    <row r="98" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F98">
         <v>4.6071289427100003E-2</v>
       </c>
-      <c r="G97">
+      <c r="G98">
         <v>5.9037674301000001E-2</v>
       </c>
-      <c r="J97">
+      <c r="J98">
         <v>1.60558798547E-2</v>
       </c>
-      <c r="K97">
+      <c r="K98">
         <v>4.3978337396099999E-2</v>
       </c>
-      <c r="N97">
+      <c r="N98">
         <v>1.2104822992999999E-2</v>
       </c>
-      <c r="O97">
+      <c r="O98">
         <v>4.5060440086300002E-2</v>
       </c>
     </row>
-    <row r="98" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F98" t="s">
+    <row r="99" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
         <v>16</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J99" t="s">
         <v>16</v>
       </c>
-      <c r="N98" t="s">
+      <c r="N99" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="6:15" x14ac:dyDescent="0.2">
-      <c r="F99">
-        <v>37.379156675799997</v>
-      </c>
-      <c r="G99">
-        <v>40.191079703900002</v>
-      </c>
-      <c r="J99">
-        <v>20.0248649776</v>
-      </c>
-      <c r="K99">
-        <v>24.302243648600001</v>
-      </c>
-      <c r="N99">
-        <v>10.8480077676</v>
-      </c>
-      <c r="O99">
-        <v>15.1663237715</v>
       </c>
     </row>
     <row r="100" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F100">
-        <v>4.8602644382099998</v>
+        <v>37.379156675799997</v>
       </c>
       <c r="G100">
-        <v>4.97192760111</v>
+        <v>40.191079703900002</v>
       </c>
       <c r="J100">
-        <v>1.3880843578199999</v>
+        <v>20.0248649776</v>
       </c>
       <c r="K100">
-        <v>2.1131764770900001</v>
+        <v>24.302243648600001</v>
       </c>
       <c r="N100">
-        <v>0.55824284364599996</v>
+        <v>10.8480077676</v>
       </c>
       <c r="O100">
-        <v>1.33414583286</v>
+        <v>15.1663237715</v>
       </c>
     </row>
     <row r="101" spans="6:15" x14ac:dyDescent="0.2">
       <c r="F101">
+        <v>4.8602644382099998</v>
+      </c>
+      <c r="G101">
+        <v>4.97192760111</v>
+      </c>
+      <c r="J101">
+        <v>1.3880843578199999</v>
+      </c>
+      <c r="K101">
+        <v>2.1131764770900001</v>
+      </c>
+      <c r="N101">
+        <v>0.55824284364599996</v>
+      </c>
+      <c r="O101">
+        <v>1.33414583286</v>
+      </c>
+    </row>
+    <row r="102" spans="6:15" x14ac:dyDescent="0.2">
+      <c r="F102">
         <v>0.13002605918499999</v>
       </c>
-      <c r="G101">
+      <c r="G102">
         <v>0.123707241451</v>
       </c>
-      <c r="J101">
+      <c r="J102">
         <v>6.9318038317799993E-2</v>
       </c>
-      <c r="K101">
+      <c r="K102">
         <v>8.6953966376199995E-2</v>
       </c>
-      <c r="N101">
+      <c r="N102">
         <v>5.1460402279100002E-2</v>
       </c>
-      <c r="O101">
+      <c r="O102">
         <v>8.7967648123300005E-2</v>
       </c>
     </row>
